--- a/02-23-25 to 03-01-25 Madison Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1510,14 +1510,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1581,10 +1577,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1654,14 +1654,10 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1718,13 +1714,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1779,12 +1774,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2703,12 +2699,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2758,12 +2754,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -2805,7 +2801,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2872,12 +2868,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -4241,7 +4237,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4272,7 +4268,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4303,7 +4299,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4334,7 +4330,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2414 10TH AVENUE</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4365,7 +4361,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4394,11 +4390,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>*4:30 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4424,9 +4416,21 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -4453,19 +4457,15 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -4492,19 +4492,15 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -4531,17 +4527,17 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 8:30</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
@@ -4568,8 +4564,16 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -4595,8 +4599,16 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -4613,406 +4625,6 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>111 N BLACKHAWK BLVD</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Until 8:30</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-23-25 to 03-01-25 Madison Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Madison Schedule.xlsx
@@ -1851,7 +1851,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1919,21 +1919,9 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>

--- a/02-23-25 to 03-01-25 Madison Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Madison Schedule.xlsx
@@ -2002,12 +2002,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2055,22 +2056,9 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>

--- a/02-23-25 to 03-01-25 Madison Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Madison Schedule.xlsx
@@ -2002,15 +2002,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2056,9 +2051,22 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>

--- a/02-23-25 to 03-01-25 Madison Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Madison Schedule.xlsx
@@ -2756,7 +2756,11 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2798,21 +2802,13 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL (SALE INV)</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -2877,21 +2873,13 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>SALEM MINI MART</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -2958,7 +2946,11 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>8246 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3001,7 +2993,11 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/LVwrNLey8PAE2Cdo7</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3090,9 +3086,21 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3125,9 +3133,22 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Salem</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>

--- a/02-23-25 to 03-01-25 Madison Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Madison Schedule.xlsx
@@ -2805,7 +2805,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL (SALE INV)</t>
+          <t>APPROXIMATE 10:15-10:30 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2876,7 +2876,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>SALEM MINI MART</t>
+          <t>CONTACT IS ROOP (THE BUYER)</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>8246 ANTIOCH RD</t>
+          <t>DC5-FINANCIAL (SALE INV)</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/LVwrNLey8PAE2Cdo7</t>
+          <t>SALEM MINI MART</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3040,7 +3040,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>8246 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3086,21 +3090,13 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/LVwrNLey8PAE2Cdo7</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3133,22 +3129,9 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Salem</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3181,9 +3164,21 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3220,9 +3215,22 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Salem</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
